--- a/Баллы 2025.xlsx
+++ b/Баллы 2025.xlsx
@@ -544,13 +544,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -622,6 +615,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -907,7 +907,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,8 +1059,12 @@
       <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="16">
+        <v>5</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
       <c r="F2" s="16"/>
       <c r="G2" s="41"/>
       <c r="H2" s="38"/>
@@ -1084,7 +1088,7 @@
       <c r="Z2" s="17"/>
       <c r="AA2" s="12">
         <f t="shared" ref="AA2:AA11" si="0">SUM(C2:Z2)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB2" s="18" t="str">
         <f t="shared" ref="AB2:AB11" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
@@ -1656,7 +1660,7 @@
       <c r="L31" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PQpqF2MK2ePNiXt8AvJ1uqtcXibZc2BrIfP6KRRMnBec5hoUQYshEh3sFIPYG+5brtBqx/xMl/MkN0TxO4eUMA==" saltValue="USmwV9KvNIQtH7n4E13N9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="guTWOc3b1qN6dQq4E0M+bvAbOy96sJx39mVbiw2H6NVXotuJ4mJWN5SV3RqIKvxGaiMgZaRklokLzVhTmVk9uw==" saltValue="wFCknY9Dyx0xFljTiw45ig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="Y12:Z12"/>
@@ -1677,49 +1681,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A11">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB11">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Не">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Не">
       <formula>NOT(ISERROR(SEARCH("Не",AB2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="отл">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="отл">
       <formula>NOT(ISERROR(SEARCH("отл",AB2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="хорошо">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="хорошо">
       <formula>NOT(ISERROR(SEARCH("хорошо",AB2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="удовл">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="удовл">
       <formula>NOT(ISERROR(SEARCH("удовл",AB2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC11">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",AC2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="D">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH("D",AC2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="C-">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="C-">
       <formula>NOT(ISERROR(SEARCH("C-",AC2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",AC2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="B+">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="B+">
       <formula>NOT(ISERROR(SEARCH("B+",AC2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="14" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",AC2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="15" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",AC2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD11">
-    <cfRule type="notContainsText" dxfId="1" priority="16" operator="notContains" text="не">
+    <cfRule type="notContainsText" dxfId="0" priority="16" operator="notContains" text="не">
       <formula>ISERROR(SEARCH("не",AD2))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Баллы 2025.xlsx
+++ b/Баллы 2025.xlsx
@@ -907,7 +907,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F2" sqref="F2"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,10 +1065,14 @@
       <c r="E2" s="16">
         <v>1</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
       <c r="G2" s="41"/>
       <c r="H2" s="38"/>
-      <c r="I2" s="16"/>
+      <c r="I2" s="16">
+        <v>8</v>
+      </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="41"/>
@@ -1088,7 +1092,7 @@
       <c r="Z2" s="17"/>
       <c r="AA2" s="12">
         <f t="shared" ref="AA2:AA11" si="0">SUM(C2:Z2)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AB2" s="18" t="str">
         <f t="shared" ref="AB2:AB11" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
@@ -1660,7 +1664,7 @@
       <c r="L31" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="guTWOc3b1qN6dQq4E0M+bvAbOy96sJx39mVbiw2H6NVXotuJ4mJWN5SV3RqIKvxGaiMgZaRklokLzVhTmVk9uw==" saltValue="wFCknY9Dyx0xFljTiw45ig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hPr3xHS6arbwt0Gu2D91XQnsdUZY+ZlLM39DBU4Gm5jH6K/93d6oMWkehugMpK0HzjUYUSeziVx4MmN8NXf7SQ==" saltValue="IVruzhxp2gLPujZC2LEFuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="Y12:Z12"/>

--- a/Баллы 2025.xlsx
+++ b/Баллы 2025.xlsx
@@ -907,7 +907,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,15 +1068,21 @@
       <c r="F2" s="16">
         <v>1</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="38"/>
+      <c r="G2" s="41">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38">
+        <v>1</v>
+      </c>
       <c r="I2" s="16">
         <v>8</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="41"/>
-      <c r="M2" s="16"/>
+      <c r="M2" s="16">
+        <v>11</v>
+      </c>
       <c r="N2" s="38"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
@@ -1092,7 +1098,7 @@
       <c r="Z2" s="17"/>
       <c r="AA2" s="12">
         <f t="shared" ref="AA2:AA11" si="0">SUM(C2:Z2)</f>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AB2" s="18" t="str">
         <f t="shared" ref="AB2:AB11" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
@@ -1664,7 +1670,7 @@
       <c r="L31" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hPr3xHS6arbwt0Gu2D91XQnsdUZY+ZlLM39DBU4Gm5jH6K/93d6oMWkehugMpK0HzjUYUSeziVx4MmN8NXf7SQ==" saltValue="IVruzhxp2gLPujZC2LEFuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pEMTD5QMcv7Vq6LOHQzMWy+hnK/1V9ixRqyGL6OiTAIJkO90DwpgmKHldFOLLy+wfsFwn06ncf3KbWjbftE/eg==" saltValue="MBJyfEB4Wr8YkRYP95lxCw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="Y12:Z12"/>

--- a/Баллы 2025.xlsx
+++ b/Баллы 2025.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Leon\NSTU\Developign of the registrationg and data processing system\Student-2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leon\NSTU\Student-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EC3B22-90B8-49D7-815C-07B8F28AE6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -103,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
@@ -399,146 +411,139 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -902,775 +907,788 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="39.42578125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="14.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="36.42578125" style="1" customWidth="1"/>
-    <col min="19" max="20" width="14.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="35.5703125" style="1" customWidth="1"/>
-    <col min="22" max="23" width="14.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="38" style="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="29.140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="1"/>
-    <col min="28" max="28" width="9.42578125" style="1" customWidth="1"/>
-    <col min="29" max="30" width="9.28515625" style="1" customWidth="1"/>
-    <col min="31" max="33" width="8.7109375" style="1"/>
-    <col min="34" max="34" width="12.85546875" style="1" customWidth="1"/>
-    <col min="35" max="1024" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="39.42578125" customWidth="1"/>
+    <col min="14" max="17" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" customWidth="1"/>
+    <col min="19" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="35.5703125" customWidth="1"/>
+    <col min="22" max="23" width="14.28515625" customWidth="1"/>
+    <col min="24" max="24" width="38" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" customWidth="1"/>
+    <col min="26" max="26" width="29.140625" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" customWidth="1"/>
+    <col min="29" max="30" width="9.28515625" customWidth="1"/>
+    <col min="34" max="34" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>44076</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <f>C1+7</f>
         <v>44083</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <f>E1+7</f>
         <v>44090</v>
       </c>
-      <c r="G1" s="40">
+      <c r="G1" s="4">
         <f>F1+7</f>
         <v>44097</v>
       </c>
-      <c r="H1" s="37">
+      <c r="H1" s="36">
         <f>G1+7</f>
         <v>44104</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="4">
         <f>H1+7</f>
         <v>44111</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="4">
         <f>J1+7</f>
         <v>44118</v>
       </c>
-      <c r="L1" s="40">
+      <c r="L1" s="4">
         <f>K1+7</f>
         <v>44125</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="37">
+      <c r="N1" s="36">
         <f>L1+7</f>
         <v>44132</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="4">
         <f>N1+7</f>
         <v>44139</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="4">
         <f>O1+7</f>
         <v>44146</v>
       </c>
-      <c r="Q1" s="42">
+      <c r="Q1" s="39">
         <f>P1+7</f>
         <v>44153</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="37">
+      <c r="S1" s="36">
         <f>Q1+7</f>
         <v>44160</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="4">
         <f>S1+7</f>
         <v>44167</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="4">
         <f>T1+7</f>
         <v>44174</v>
       </c>
-      <c r="W1" s="5">
+      <c r="W1" s="4">
         <f>V1+7</f>
         <v>44181</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Y1" s="4">
         <f>W1+7</f>
         <v>44188</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" s="12" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>5</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>1</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="15">
         <v>1</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="37">
         <v>1</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>8</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="16">
+      <c r="J2" s="15">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1</v>
+      </c>
+      <c r="L2" s="15">
+        <v>1</v>
+      </c>
+      <c r="M2" s="15">
         <v>11</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="12">
+      <c r="N2" s="37">
+        <v>1</v>
+      </c>
+      <c r="O2" s="15">
+        <v>1</v>
+      </c>
+      <c r="P2" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="15">
+        <v>9</v>
+      </c>
+      <c r="S2" s="37"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15">
+        <v>10</v>
+      </c>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="11">
         <f t="shared" ref="AA2:AA11" si="0">SUM(C2:Z2)</f>
-        <v>29</v>
-      </c>
-      <c r="AB2" s="18" t="str">
+        <v>54</v>
+      </c>
+      <c r="AB2" s="17" t="str">
         <f t="shared" ref="AB2:AB11" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
-        <v>Не удовл</v>
-      </c>
-      <c r="AC2" s="19" t="str">
+        <v>удовл</v>
+      </c>
+      <c r="AC2" s="18" t="str">
         <f t="shared" ref="AC2:AC11" si="2">IF(AA2&gt;=98,"A+",IF(AA2&gt;=93,"A",IF(AA2&gt;=90,"A-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"C",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>Не удовл</v>
-      </c>
-      <c r="AD2" s="19" t="str">
+        <v>E</v>
+      </c>
+      <c r="AD2" s="18" t="str">
         <f t="shared" ref="AD2:AD11" si="3">IF(AA2&gt;=AH2,"Зачет","Не зачет")</f>
         <v>Не зачет</v>
       </c>
-      <c r="AH2" s="12">
+      <c r="AH2" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="12">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB3" s="22" t="str">
+      <c r="AB3" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC3" s="19" t="str">
+      <c r="AC3" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD3" s="19" t="str">
+      <c r="AD3" s="18" t="str">
         <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-      <c r="AH3" s="12">
+      <c r="AH3" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="12">
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="23" t="str">
+      <c r="AB4" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC4" s="19" t="str">
+      <c r="AC4" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD4" s="19" t="str">
+      <c r="AD4" s="18" t="str">
         <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-      <c r="AH4" s="12">
+      <c r="AH4" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>4</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="12">
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="23" t="str">
+      <c r="AB5" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC5" s="19" t="str">
+      <c r="AC5" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD5" s="19" t="str">
+      <c r="AD5" s="18" t="str">
         <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AH5" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="14">
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="13">
         <v>5</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="12">
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="23" t="str">
+      <c r="AB6" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC6" s="19" t="str">
+      <c r="AC6" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD6" s="19" t="str">
+      <c r="AD6" s="18" t="str">
         <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="14">
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="13">
         <v>6</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="12">
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="23" t="str">
+      <c r="AB7" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC7" s="19" t="str">
+      <c r="AC7" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD7" s="19" t="str">
+      <c r="AD7" s="18" t="str">
         <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AH7" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="14">
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="13">
         <v>7</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="12">
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="23" t="str">
+      <c r="AB8" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC8" s="19" t="str">
+      <c r="AC8" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD8" s="19" t="str">
+      <c r="AD8" s="18" t="str">
         <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-      <c r="AH8" s="12">
+      <c r="AH8" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="14">
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="13">
         <v>8</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="12">
+      <c r="C9" s="27"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="23" t="str">
+      <c r="AB9" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC9" s="19" t="str">
+      <c r="AC9" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD9" s="19" t="str">
+      <c r="AD9" s="18" t="str">
         <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-      <c r="AH9" s="12">
+      <c r="AH9" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="14">
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="13">
         <v>9</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="12">
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="23" t="str">
+      <c r="AB10" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC10" s="19" t="str">
+      <c r="AC10" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD10" s="19" t="str">
+      <c r="AD10" s="18" t="str">
         <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-      <c r="AH10" s="12">
+      <c r="AH10" s="11">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="14">
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="13">
         <v>10</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="30">
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="23" t="str">
+      <c r="AB11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Не удовл</v>
       </c>
-      <c r="AC11" s="19" t="str">
+      <c r="AC11" s="18" t="str">
         <f t="shared" si="2"/>
         <v>Не удовл</v>
       </c>
-      <c r="AD11" s="19" t="str">
+      <c r="AD11" s="18" t="str">
         <f t="shared" si="3"/>
         <v>Не зачет</v>
       </c>
-      <c r="AH11" s="30">
+      <c r="AH11" s="29">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="46" t="s">
+    <row r="12" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="48" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49" t="s">
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49" t="s">
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49" t="s">
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="46" t="s">
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="47" t="s">
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AH12" s="35"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AH12" s="34"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="E14" s="36"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="J18"/>
+      <c r="L18"/>
     </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="J19"/>
+      <c r="L19"/>
     </row>
     <row r="20" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="J20"/>
+      <c r="L20"/>
     </row>
     <row r="21" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="J21"/>
+      <c r="L21"/>
     </row>
     <row r="22" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="J22"/>
+      <c r="L22"/>
     </row>
     <row r="23" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="J23"/>
+      <c r="L23"/>
     </row>
     <row r="24" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="J24"/>
+      <c r="L24"/>
     </row>
     <row r="25" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="J25"/>
+      <c r="L25"/>
     </row>
     <row r="26" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="J26"/>
+      <c r="L26"/>
     </row>
     <row r="27" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="J27"/>
+      <c r="L27"/>
     </row>
     <row r="28" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="J28"/>
+      <c r="L28"/>
     </row>
     <row r="29" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="J29"/>
+      <c r="L29"/>
     </row>
     <row r="30" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="J30"/>
+      <c r="L30"/>
     </row>
     <row r="31" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="J31"/>
+      <c r="L31"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pEMTD5QMcv7Vq6LOHQzMWy+hnK/1V9ixRqyGL6OiTAIJkO90DwpgmKHldFOLLy+wfsFwn06ncf3KbWjbftE/eg==" saltValue="MBJyfEB4Wr8YkRYP95lxCw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X6t5J4Nk1WIcgXrL2lIMPSicn/ow0ZxMluyIPnB/vWsGA4R8MLVNv/UkqEmHH3jgWcHhubdbQBtpX/fYEifiMw==" saltValue="OqbzrWwRTGlVOIOWziC37A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="Y12:Z12"/>
@@ -1680,18 +1698,18 @@
     <mergeCell ref="N12:R12"/>
     <mergeCell ref="S12:U12"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:M3 C2:C11 N2:Z11 D4:H9 D10:J11">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+  <conditionalFormatting sqref="A8:A11">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:M4 I5:J9 K7:M11 K5:L11 M5:M6">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+  <conditionalFormatting sqref="D2:M3 C2:C11 N2:Z11 D4:H9 D10:J11">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A11">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+  <conditionalFormatting sqref="I4:M4 M5:M6 I5:J9 K5:L11 K7:M11">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1743,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>
@@ -1756,7 +1774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>

--- a/Баллы 2025.xlsx
+++ b/Баллы 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leon\NSTU\Student-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EC3B22-90B8-49D7-815C-07B8F28AE6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3277CCB4-51CB-4270-8B2E-0C42992CD51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,8 +911,8 @@
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,35 +1100,47 @@
       <c r="P2" s="15">
         <v>1</v>
       </c>
-      <c r="Q2" s="40"/>
+      <c r="Q2" s="40">
+        <v>1</v>
+      </c>
       <c r="R2" s="15">
-        <v>9</v>
-      </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="S2" s="37">
+        <v>1</v>
+      </c>
+      <c r="T2" s="15">
+        <v>1</v>
+      </c>
       <c r="U2" s="15">
-        <v>10</v>
-      </c>
-      <c r="V2" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="V2" s="15">
+        <v>1</v>
+      </c>
       <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
+      <c r="X2" s="15">
+        <v>11</v>
+      </c>
       <c r="Y2" s="15"/>
-      <c r="Z2" s="16"/>
+      <c r="Z2" s="16">
+        <v>24</v>
+      </c>
       <c r="AA2" s="11">
         <f t="shared" ref="AA2:AA11" si="0">SUM(C2:Z2)</f>
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="AB2" s="17" t="str">
         <f t="shared" ref="AB2:AB11" si="1">IF(AA2&gt;=87,"отл",IF(AA2&gt;=73,"хорошо",IF(AA2&gt;=50,"удовл","Не удовл")))</f>
-        <v>удовл</v>
+        <v>отл</v>
       </c>
       <c r="AC2" s="18" t="str">
         <f t="shared" ref="AC2:AC11" si="2">IF(AA2&gt;=98,"A+",IF(AA2&gt;=93,"A",IF(AA2&gt;=90,"A-",IF(AA2&gt;=87,"B+",IF(AA2&gt;=83,"B",IF(AA2&gt;=80,"B-",IF(AA2&gt;=77,"C+",IF(AA2&gt;=73,"C",IF(AA2&gt;=70,"C-",IF(AA2&gt;=67,"D+",IF(AA2&gt;=63,"D",IF(AA2&gt;=60,"D-",IF(AA2&gt;=50,"E","Не удовл")))))))))))))</f>
-        <v>E</v>
+        <v>A+</v>
       </c>
       <c r="AD2" s="18" t="str">
         <f t="shared" ref="AD2:AD11" si="3">IF(AA2&gt;=AH2,"Зачет","Не зачет")</f>
-        <v>Не зачет</v>
+        <v>Зачет</v>
       </c>
       <c r="AH2" s="11">
         <v>85</v>
@@ -1688,7 +1700,7 @@
       <c r="L31"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X6t5J4Nk1WIcgXrL2lIMPSicn/ow0ZxMluyIPnB/vWsGA4R8MLVNv/UkqEmHH3jgWcHhubdbQBtpX/fYEifiMw==" saltValue="OqbzrWwRTGlVOIOWziC37A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VwXKfeaYHycVJkT25/4xwPWBco730ZxrpgMC5sqVbcom1s9ZvlynmzHWVzWbrLkml5jox30ZAVUE+bo38j21jA==" saltValue="G98Z/D+FZukpQsaic1Rrtw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="Y12:Z12"/>
